--- a/release_note_CLM.xlsx
+++ b/release_note_CLM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/CLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F53E4D4FE4BDC8482F91C344382764D17143B829" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122A8FB8-F482-409F-8E82-C8712DFAE93D}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F53E4D4FE4BDC8482F91C344382764D17143B829" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7756B092-805E-47BB-A80A-D5C039693330}"/>
   <bookViews>
-    <workbookView xWindow="11685" yWindow="3240" windowWidth="16335" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="39675" yWindow="1305" windowWidth="15855" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="release_note_RDM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Target</t>
   </si>
@@ -96,19 +96,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>가시성 문제</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율성 문제</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>버그 수정</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>데이터 문서 선택된 상태에서 데이터 시트명 새로고침 시 더 이상 팝업이 발생하지 않습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시성 개선</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율성 개선</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +563,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,10 +574,10 @@
     <col min="2" max="2" width="7.625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,11 +593,11 @@
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -609,16 +609,16 @@
         <v>45328</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="b">
+      <c r="G2" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A15" si="0">ROW()-1</f>
         <v>2</v>
@@ -629,15 +629,17 @@
       <c r="C3" s="6">
         <v>45327</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="b">
+      <c r="G3" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -653,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -669,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -685,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -701,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -717,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -729,16 +731,16 @@
         <v>45328</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="b">
+      <c r="G9" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -750,16 +752,16 @@
         <v>45329</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="b">
+      <c r="G10" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -771,16 +773,16 @@
         <v>45329</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="b">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -792,7 +794,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -804,7 +806,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -816,7 +818,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -828,7 +830,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -915,42 +917,42 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="39" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="39" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1031,25 +1033,25 @@
     <row r="126" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="127" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="128" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="2:6" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="2:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="12"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="14"/>
-      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1058,26 +1060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1e91ce72-769a-45b6-b2e9-1e3503954573" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="15" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b78eebbc2d6c979e009d821ab66ae46d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0dbee0cef37b779d0ab94f305bbd4484" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -1312,10 +1294,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1e91ce72-769a-45b6-b2e9-1e3503954573" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F57CE28-F0C8-4C01-9A24-574A0611E688}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4C040B1-66D2-4E16-A35B-B078AFA9B962}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1332,20 +1345,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4C040B1-66D2-4E16-A35B-B078AFA9B962}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F57CE28-F0C8-4C01-9A24-574A0611E688}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>